--- a/MainTop/11.12.2025 Таня Озон/объединенный_отчет_с_местом_updated.xlsx
+++ b/MainTop/11.12.2025 Таня Озон/объединенный_отчет_с_местом_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\11.12.2025 Таня Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EAE479-4669-46F0-B74C-53B8C5F05285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9F5B43-DBBA-48DE-ADA5-56EAE313ADF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,15 +22,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
-    <t>артикул</t>
-  </si>
-  <si>
     <t>место</t>
   </si>
   <si>
-    <t>москва</t>
-  </si>
-  <si>
     <t>Термонаклейка Цветы Пионы надпись</t>
   </si>
   <si>
@@ -257,6 +251,12 @@
   </si>
   <si>
     <t>в1</t>
+  </si>
+  <si>
+    <t>Артикул</t>
+  </si>
+  <si>
+    <t>Num_Copies</t>
   </si>
 </sst>
 </file>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,431 +692,431 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>57</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>51</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>38</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>6</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>3</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>3</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>3</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>2</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
         <v>2</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
         <v>2</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
         <v>2</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
         <v>2</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
         <v>2</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
         <v>1</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/MainTop/11.12.2025 Таня Озон/объединенный_отчет_с_местом_updated.xlsx
+++ b/MainTop/11.12.2025 Таня Озон/объединенный_отчет_с_местом_updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\11.12.2025 Таня Озон\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\11.12.2025 Таня Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EAE479-4669-46F0-B74C-53B8C5F05285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8206C259-E202-4B52-880D-446C4029363D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>артикул</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>в1</t>
+  </si>
+  <si>
+    <t>11.12.2025 Таня Озон</t>
   </si>
 </sst>
 </file>
@@ -677,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +693,7 @@
     <col min="3" max="3" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,8 +703,11 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -712,7 +718,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -723,7 +729,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -734,7 +740,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -745,7 +751,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -756,7 +762,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -767,7 +773,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -778,7 +784,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -789,7 +795,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -800,7 +806,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -811,7 +817,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -822,7 +828,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -833,7 +839,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -844,7 +850,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -855,7 +861,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1121,6 +1127,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="257" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>